--- a/Test case/Angular.xlsx
+++ b/Test case/Angular.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\AUTOTEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\Autotest tasks\Autotest.git\Test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -171,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,13 +179,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -196,13 +189,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -249,39 +235,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -567,7 +547,7 @@
   <dimension ref="A2:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -592,7 +572,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -603,7 +583,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -615,7 +595,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -627,7 +607,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -639,7 +619,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -651,7 +631,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -663,7 +643,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -675,7 +655,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -687,7 +667,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -699,75 +679,75 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="5" t="s">
         <v>30</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="9">
         <v>11</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="9">
         <v>12</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="9">
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -779,7 +759,7 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="9">
         <v>14</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -791,7 +771,7 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="9">
         <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -803,7 +783,7 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="9">
         <v>16</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -814,7 +794,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="9">
         <v>17</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -825,7 +805,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="9">
         <v>18</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -836,7 +816,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="9">
         <v>19</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -847,7 +827,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="9">
         <v>20</v>
       </c>
       <c r="B26" s="6" t="s">
